--- a/biology/Zoologie/Grotte_Fourgassié/Grotte_Fourgassié.xlsx
+++ b/biology/Zoologie/Grotte_Fourgassié/Grotte_Fourgassié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grotte_Fourgassi%C3%A9</t>
+          <t>Grotte_Fourgassié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grotte Fourgassie est une cavité naturelle latéritique de Guyane située, en pleine forêt primaire, et non loin de la crique homonyme  (affluent de  l'Orapu) sur la commune de Roura, dans la Montagne de Kaw. Elle présente un intérêt géologique et, par la faune qui l'habite, peut se rattacher au domaine de la biospéléologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grotte Fourgassie est une cavité naturelle latéritique de Guyane située, en pleine forêt primaire, et non loin de la crique homonyme  (affluent de  l'Orapu) sur la commune de Roura, dans la Montagne de Kaw. Elle présente un intérêt géologique et, par la faune qui l'habite, peut se rattacher au domaine de la biospéléologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grotte_Fourgassi%C3%A9</t>
+          <t>Grotte_Fourgassié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grotte Fourgassié se situe non loin de Cayenne (40 km. environ à vol d'oiseau) et surtout de Roura, à 11 km. environ par la route de Kaw, cette dernière conduisant à une réserve naturelle nationale dite des marais de Kaw).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grotte_Fourgassi%C3%A9</t>
+          <t>Grotte_Fourgassié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec les Monts de l'Observatoire, la Montagne Bruyère et celle des Trois Pitons, près d'Ouanary, la Montagne de Kaw fait partie de la Chaîne septentrionale des "Terres Hautes", synclinorium de terrains métamorphiques antécambriens traversant la Guyane d'ouest en est.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grotte_Fourgassi%C3%A9</t>
+          <t>Grotte_Fourgassié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La grotte s'ouvre au pied d'une petite falaise, en pleine forêt primaire, très humide, sempervirente et de type amazonien, à 200 m. d'altitude environ.
 Comme les cinq autres cavités connues un peu plus à l'est dans la Montagne de Kaw (grottes de la Scierie, du Bassin Scierie et de la Crique, Trou Chaput, Aven de la deuxième falaise), elle est creusée dans la cuirasse de latérite.
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grotte_Fourgassi%C3%A9</t>
+          <t>Grotte_Fourgassié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,21 +623,177 @@
           <t>Biospéologie (Faune souterraine)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La grotte Fourgassié est beaucoup plus riche en espèces et individus que les autres cavités de la Montagne de Kaw. Elle renferme une faune abondante où dominent les espèces troglophiles, la plus impressionnante étant l'Amblypyge Heterophrynus longicornis et ne présentant pas d'adaptation poussée à la vie souterraine. 
-Arachnides
-Amblypyges
-Heterophrynus longicornis (Fig.2 à 4).
-Araignées
-Paratropididae : Paratropis papilligera[2]
-Ctenidae (Fig.1), Ochyroceratidae[2], Pholcidae (Modisimus).
-Pseudo-scorpions
-Acariens
-Oribates, Gamasides
-Insectes
-Trois de ces taxons ont été reconnus comme nouveaux : l' araignée Ochyrocera caeruleoamethystina Lopez &amp; Lopez  (Ochyroceratidae) et deux Diploures Campodeidae, Lepidocampa juberthiei (Condé,1993). et Podocampa latipes 
-(Condé,1993)[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grotte_Fourgassié</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grotte_Fourgassi%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biospéologie (Faune souterraine)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Amblypyges</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterophrynus longicornis (Fig.2 à 4).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grotte_Fourgassié</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grotte_Fourgassi%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biospéologie (Faune souterraine)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Araignées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paratropididae : Paratropis papilligera
+Ctenidae (Fig.1), Ochyroceratidae, Pholcidae (Modisimus).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grotte_Fourgassié</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grotte_Fourgassi%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biospéologie (Faune souterraine)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Acariens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oribates, Gamasides
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grotte_Fourgassié</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grotte_Fourgassi%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biospéologie (Faune souterraine)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois de ces taxons ont été reconnus comme nouveaux : l' araignée Ochyrocera caeruleoamethystina Lopez &amp; Lopez  (Ochyroceratidae) et deux Diploures Campodeidae, Lepidocampa juberthiei (Condé,1993). et Podocampa latipes 
+(Condé,1993).
 Il est à noter que la forêt primaire environnante est l'habitat de Mygales Dipluridae, observées près du porche sur leurs toiles en nappe pourvues d'une retraite, et surtout, de Theraphosa leblondi dont les terriers, fréquents dans le sol du sous-bois, ont été rencontrés jusqu'au placer  "Trésor" (Fig.5, A. Lopez, 2002).
 Des nids de Coq de roche, Rupicola rupicola, ont été signalés sur les parois de l'entrée. Jaguar et  Puma hanteraient le secteur de la grotte.
 </t>
